--- a/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-3.xlsx
+++ b/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-3.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
   </bookViews>
@@ -314,12 +314,7 @@
     <definedName name="Test9_DMU_8">Test9!$I$2:$I$6</definedName>
     <definedName name="Test9_DMU_9">Test9!$J$2:$J$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -458,8 +453,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,24 +500,16 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -788,53 +775,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +937,1992 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.18835616438356165</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.24336283185840707</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29224417575936301</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.25003904795088372</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.63953488372093026</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.031572904707233063</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.056124141390441827</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.02013177159590044</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.3096231203103943</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.030286343612334801</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.039034776437189493</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.32689317185806516</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13988519345038045</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.32163742690058478</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.10826771653543307</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.95183863885839737</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.63218390804597702</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.27093596059113301</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.2920419356797344</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.2504525736249659</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2576598730325785</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.038327526132404179</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.2570093457943925</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.28350515463917525</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.84040705891854772</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.14536780268369179</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.13369437431341183</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.1523545706371191</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.70108475946637916</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.30672974885037141</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084359570966460476</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0181818181818181</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.28717948717948716</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.93375068456210675</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.19178082191780821</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13827160493827159</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.24778761061946902</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.29397143699709316</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25225225225225223</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.032146957520091848</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.056455853917039507</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.020497803806734993</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3417048087732049</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.030837004405286344</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.039744499645138397</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.32882522030064559</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.14071196192831986</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.32748538011695905</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.11023622047244094</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.95746432491767286</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.64367816091954022</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.1964261568539489</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1345388025047491</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.1393145487342164</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.2196078431372549</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.039024390243902439</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.26168224299065418</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.28865979381443296</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.84537414691273272</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.14622697522369921</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.13448455297087902</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.15512465373961218</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70522840587521896</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.30854262469048466</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.08485816436557031</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.99758538785588513</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.27918781725888325</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1211881583170216</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.19163763066202091</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.13715710723192021</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.24886877828054299</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.28142748958727759</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.26626492150616049</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.65476190476190477</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.032032615026208501</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.059053207760257201</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.019884309472161965</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.45004004157651</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.030386740331491711</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.038220986796386379</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33006090211254202</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13487711930315757</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.33132530120481929</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10805500982318271</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.93608312342569278</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.58510638297872342</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4953749148265836</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.2539587805511969</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.3532640015509638</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.22267206477732793</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.038650737877723121</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.2570093457943925</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.89694853891905868</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14133778855361545</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.12605774996819935</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.15193370165745856</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.73886955904281759</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.27593476531424027</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.08370908769121238</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.92955844269030585</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.23350253807106597</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.81704126098757446</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.16027874564459929</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.11471321695760599</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.20814479638009051</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1965811965811966</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.54761904761904756</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.026790914385556204</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.047082906857727737</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.016630513376717282</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.02541436464088398</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.031966643502432245</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.095833333333333326</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.27710843373493976</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.22549019607843138</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.090373280943025533</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.58517787871754923</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.23232323232323235</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.95993685355409963</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.18623481781376519</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.032326071679550247</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.21495327102803738</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.23589743589743589</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.57479149791344109</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.10407239819004525</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.10430839002267574</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.1270718232044199</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.56324156422042604</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.18699186991869921</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.049465167016458311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.18835616438356165</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.24336283185840707</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29224417575936301</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.25003904795088372</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.63953488372093026</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.031572904707233063</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.056124141390441827</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.02013177159590044</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.3096231203103943</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.030286343612334801</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.039034776437189493</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.32689317185806516</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13988519345038045</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.32163742690058478</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.10826771653543307</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.95183863885839737</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.63218390804597702</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.27093596059113301</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.2920419356797344</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.2504525736249659</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2576598730325785</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.038327526132404179</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.2570093457943925</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.28350515463917525</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.84040705891854772</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.14536780268369179</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.13369437431341183</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.1523545706371191</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.70108475946637916</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.30672974885037141</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084359570966460476</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0181818181818181</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.28717948717948716</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.93375068456210675</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.19178082191780821</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13827160493827159</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.24778761061946902</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.29397143699709316</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25225225225225223</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.032146957520091848</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.056455853917039507</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.020497803806734993</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3417048087732049</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.030837004405286344</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.039744499645138397</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.32882522030064559</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.14071196192831986</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.32748538011695905</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.11023622047244094</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.95746432491767286</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.64367816091954022</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.1964261568539489</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1345388025047491</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.1393145487342164</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.2196078431372549</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.039024390243902439</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.26168224299065418</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.28865979381443296</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.84537414691273272</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.14622697522369921</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.13448455297087902</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.15512465373961218</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70522840587521896</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.30854262469048466</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.08485816436557031</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.99758538785588513</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.27918781725888325</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1211881583170216</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.19163763066202091</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.13715710723192021</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.24886877828054299</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.28142748958727759</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.26626492150616049</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.65476190476190477</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.032032615026208501</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.059053207760257201</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.019884309472161965</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.45004004157651</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.030386740331491711</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.038220986796386379</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33006090211254202</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13487711930315757</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.33132530120481929</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10805500982318271</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.93608312342569278</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.58510638297872342</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4953749148265836</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.2539587805511969</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.3532640015509638</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.22267206477732793</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.038650737877723121</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.2570093457943925</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.89694853891905868</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14133778855361545</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.12605774996819935</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.15193370165745856</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.73886955904281759</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.27593476531424027</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.08370908769121238</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.92955844269030585</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.23350253807106597</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.81704126098757446</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.16027874564459929</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.11471321695760599</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.20814479638009051</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1965811965811966</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.54761904761904756</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.026790914385556204</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.047082906857727737</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.016630513376717282</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.02541436464088398</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.031966643502432245</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.095833333333333326</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.27710843373493976</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.22549019607843138</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.090373280943025533</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.58517787871754923</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.23232323232323235</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.95993685355409963</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.18623481781376519</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.032326071679550247</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.21495327102803738</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.23589743589743589</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.57479149791344109</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.10407239819004525</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.10430839002267574</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.1270718232044199</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.56324156422042604</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.18699186991869921</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.049465167016458311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.18078757394907613</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.11126913432388938</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.09252129532480928</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.13478714240377204</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29224417575936301</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.25003904795088372</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.55742754593667965</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.020414769734228361</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.056124141390441827</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.017645023935371953</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.3096231203103943</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.025781011914937899</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.032171345535493445</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.32689317185806516</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13988519345038045</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.22917331982512748</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.1925714127085473</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.10315650682554947</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.95183863885839737</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.35671311770453024</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.12548615256598109</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.93228948702166348</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.3638699289828446</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.96693441279688563</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.15172901523049892</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.02624685487990213</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.17919662461790156</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.18999233128834356</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.84040705891854772</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.14536780268369179</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.13369437431341183</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.07449474158976524</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.70108475946637916</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.30672974885037141</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084359570966460476</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0059103358800634</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.18185608923405697</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.93375068456210675</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.11192677228082747</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.093068127256237448</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.13558377968769228</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.29397143699709316</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2515168627074047</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.56072212996196491</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.020535427880271805</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.056455853917039507</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.01774931195344176</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3417048087732049</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.025933386354683102</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.032361488993321794</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.32882522030064559</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.14071196192831986</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.2305278111200432</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.19370957443855316</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.10376619642910252</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.95746432491767286</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.35882141204298867</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.12622781787594292</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.9250804566980092</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.356243602360784</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0.93092850727191012</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.15262578467326243</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.026401982608037635</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.18025573685796703</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.19111524978089395</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.84537414691273272</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.14622697522369921</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.13448455297087902</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.07493503053385929</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70522840587521896</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.30854262469048466</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.08485816436557031</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.97258299253025671</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.18048966635733676</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0652287956844779</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.11386379677301105</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.10049642170734299</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.13828825835603695</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.28142748958727759</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.26626492150616049</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.5479318606671757</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.019722495737738474</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.059053207760257201</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.017869317254868962</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.45004004157651</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.023199039532340537</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.032600011905246765</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33006090211254202</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13487711930315757</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.22788095133809294</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.1843622930342573</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.084793343981224942</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.93608312342569278</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.37337184685492841</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.12731555120518781</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.89321491522689167</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.4249853131231665</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.013447048357992</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.14735746452544821</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.027369426098209564</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.16353135313531353</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.18400042439192596</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.89694853891905868</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14133778855361545</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.12605774996819935</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.071092815905441864</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.73886955904281759</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.27593476531424027</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.08370908769121238</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.38411197095633898</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.06973799467490005</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.043994944493382433</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.038830028684289315</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.053432121735663501</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.10873857305133339</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.10288002661241827</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.21171111871725337</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.0076204213265655225</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.022817108433051184</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.0069043861441738181</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.5924261401311427</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.0089636959723007198</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.012596064376055417</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.12752965806001396</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.052114118318038062</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.088049143708116159</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.071234308696769166</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.032762638938687708</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.36168585822238219</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.14426423624816104</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.049192462987886945</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.59545319905213279</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.85642773458302279</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.87927829414980874</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.056936301583255446</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.010575059115645722</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.063185604274713189</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.071094489094011656</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.34656495129730197</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.054610405927616255</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.048706470976612896</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.027468998736036622</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.28548604700702979</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.106616282153275</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.032343701606123626</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL6" sqref="A1:AL6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="43.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -992,7 +2964,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1034,7 +3006,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1076,7 +3048,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1118,7 +3090,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1165,54 +3137,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +3300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +3342,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +3384,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1454,7 +3426,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1496,7 +3468,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1543,54 +3515,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="6.5546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="8.44140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="8.5546875" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="4" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="5.33203125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="7.109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="6.6640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="5.5546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="3.88671875" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="4" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="3.77734375" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="8.21875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="6.21875" bestFit="true" customWidth="true"/>
+    <col min="29" max="30" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="7.88671875" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="8.33203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="6.44140625" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="8.109375" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="8" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="7.6640625" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="8.109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +3678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1748,7 +3720,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1790,7 +3762,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1832,7 +3804,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1874,7 +3846,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1921,17 +3893,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL6" sqref="A1:AL6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +4019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -2089,7 +4061,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -2131,7 +4103,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2173,7 +4145,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2215,7 +4187,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2262,54 +4234,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="true" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +4360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -2467,7 +4402,7 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -2509,7 +4444,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2551,7 +4486,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2593,7 +4528,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -2638,1064 +4573,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-3.xlsx
+++ b/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-3.xlsx
@@ -1405,43 +1405,117 @@
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.94875036944847868</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.85157024793388414</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.68045031612518792</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.85157024793388403</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.85157024793388414</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.70264300680325431</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.7577802055015237</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.85157024793388414</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.8020086367491237</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.85157024793388447</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.70653006590412226</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.73016631101136631</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.71472271219824779</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.85157024793388414</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.628829280006862</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.85157024793388447</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.6192402801879483</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.69456282281207526</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.669418807029597</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.85157024793388447</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.64461748209535863</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.74069010199264362</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.83235570735863418</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.76680721801633767</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.68167218604205615</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.59441004722731505</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1732,7 +1806,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>1.0181818181818181</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="C3" s="2">
         <v>0.28717948717948716</v>
@@ -1750,7 +1824,7 @@
         <v>0.24778761061946902</v>
       </c>
       <c r="H3" s="2">
-        <v>0.29397143699709316</v>
+        <v>0.29045643153526973</v>
       </c>
       <c r="I3" s="2">
         <v>0.25225225225225223</v>
@@ -1768,46 +1842,46 @@
         <v>0.020497803806734993</v>
       </c>
       <c r="N3" s="2">
-        <v>1.3417048087732049</v>
+        <v>1.33000000175</v>
       </c>
       <c r="O3" s="2">
         <v>0.030837004405286344</v>
       </c>
       <c r="P3" s="2">
-        <v>0.039744499645138397</v>
+        <v>0.046368582974528824</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.32882522030064559</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="R3" s="2">
         <v>0.14071196192831986</v>
       </c>
       <c r="S3" s="2">
-        <v>0.32748538011695905</v>
+        <v>0.40253411368583492</v>
       </c>
       <c r="T3" s="2">
-        <v>0.27450980392156865</v>
+        <v>0.34313725490196079</v>
       </c>
       <c r="U3" s="2">
         <v>0.11023622047244094</v>
       </c>
       <c r="V3" s="2">
-        <v>0.95746432491767286</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="W3" s="2">
-        <v>0.64367816091954022</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="X3" s="2">
         <v>0.27586206896551724</v>
       </c>
       <c r="Y3" s="2">
-        <v>1.1964261568539489</v>
+        <v>1.2962962962962963</v>
       </c>
       <c r="Z3" s="2">
-        <v>1.1345388025047491</v>
+        <v>1.1475409836065573</v>
       </c>
       <c r="AA3" s="2">
-        <v>1.1393145487342164</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="AB3" s="2">
         <v>0.2196078431372549</v>
@@ -1819,28 +1893,28 @@
         <v>0.26168224299065418</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.28865979381443296</v>
+        <v>0.36082474226804123</v>
       </c>
       <c r="AF3" s="2">
-        <v>0.84537414691273272</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="AG3" s="2">
         <v>0.14622697522369921</v>
       </c>
       <c r="AH3" s="2">
-        <v>0.13448455297087902</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="AI3" s="2">
         <v>0.15512465373961218</v>
       </c>
       <c r="AJ3" s="2">
-        <v>0.70522840587521896</v>
+        <v>0.74014337032556743</v>
       </c>
       <c r="AK3" s="2">
-        <v>0.30854262469048466</v>
+        <v>0.26103569704544843</v>
       </c>
       <c r="AL3" s="2">
-        <v>0.08485816436557031</v>
+        <v>0.0708502024291498</v>
       </c>
     </row>
     <row r="4">
@@ -1967,13 +2041,13 @@
         <v>0.92955844269030585</v>
       </c>
       <c r="C5" s="2">
-        <v>0.23350253807106597</v>
+        <v>0.24263959395431467</v>
       </c>
       <c r="D5" s="2">
         <v>0.81704126098757446</v>
       </c>
       <c r="E5" s="2">
-        <v>0.16027874564459929</v>
+        <v>0.1672473867595819</v>
       </c>
       <c r="F5" s="2">
         <v>0.11471321695760599</v>
@@ -1982,7 +2056,7 @@
         <v>0.20814479638009051</v>
       </c>
       <c r="H5" s="2">
-        <v>0.1965811965811966</v>
+        <v>0.19871794872863252</v>
       </c>
       <c r="I5" s="2">
         <v>0.20000000000000001</v>
@@ -2006,28 +2080,28 @@
         <v>0.02541436464088398</v>
       </c>
       <c r="P5" s="2">
-        <v>0.031966643502432245</v>
+        <v>0.033356497567755383</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.23958333333333331</v>
+        <v>0.24843750004427081</v>
       </c>
       <c r="R5" s="2">
         <v>0.095833333333333326</v>
       </c>
       <c r="S5" s="2">
-        <v>0.27710843373493976</v>
+        <v>0.28855421692469879</v>
       </c>
       <c r="T5" s="2">
-        <v>0.22549019607843138</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="U5" s="2">
         <v>0.090373280943025533</v>
       </c>
       <c r="V5" s="2">
-        <v>0.58517787871754923</v>
+        <v>0.59795324016074713</v>
       </c>
       <c r="W5" s="2">
-        <v>0.48936170212765956</v>
+        <v>0.51063829787234039</v>
       </c>
       <c r="X5" s="2">
         <v>0.23232323232323235</v>
@@ -2051,71 +2125,145 @@
         <v>0.21495327102803738</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.23589743589743589</v>
+        <v>0.24615384615384617</v>
       </c>
       <c r="AF5" s="2">
-        <v>0.57479149791344109</v>
+        <v>0.5796520646763802</v>
       </c>
       <c r="AG5" s="2">
         <v>0.10407239819004525</v>
       </c>
       <c r="AH5" s="2">
-        <v>0.10430839002267574</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="AI5" s="2">
         <v>0.1270718232044199</v>
       </c>
       <c r="AJ5" s="2">
-        <v>0.56324156422042604</v>
+        <v>0.56715896304186986</v>
       </c>
       <c r="AK5" s="2">
-        <v>0.18699186991869921</v>
+        <v>0.19471544719308942</v>
       </c>
       <c r="AL5" s="2">
-        <v>0.049465167016458311</v>
+        <v>0.05034256192026447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1859379618105985</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.88489256215008238</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.68045031612518792</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.88859504132231393</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.85157024793388414</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.70178763431972724</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.7577802055015237</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.85157024793388414</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.8020086367491237</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.85157024793388447</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.70036641647585385</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.0366942161101929</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.85281229859357899</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.71472271219824779</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.0899559247746189</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.1107438016528925</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.85157024793388414</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.53383229732168769</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1.1107438016528925</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.85157024793388447</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.67093056861603562</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.7025227370863586</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.68548989308429209</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.85157024793388447</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1.1107438016528928</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.61871259392630185</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.74069010199264362</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.98278874013663953</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.81036812959915439</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.60053453584981153</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.50509077570643979</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2362,7 +2510,7 @@
         <v>0.93228948702166348</v>
       </c>
       <c r="Z2" s="2">
-        <v>1.3638699289828446</v>
+        <v>0.98937011416368159</v>
       </c>
       <c r="AA2" s="2">
         <v>0.96693441279688563</v>
@@ -2478,10 +2626,10 @@
         <v>0.9250804566980092</v>
       </c>
       <c r="Z3" s="2">
-        <v>1.356243602360784</v>
+        <v>0.89321984563341883</v>
       </c>
       <c r="AA3" s="2">
-        <v>0.93092850727191012</v>
+        <v>0.91070271842736439</v>
       </c>
       <c r="AB3" s="2">
         <v>0.15262578467326243</v>
@@ -2594,7 +2742,7 @@
         <v>0.89321491522689167</v>
       </c>
       <c r="Z4" s="2">
-        <v>1.4249853131231665</v>
+        <v>1.0229082682993749</v>
       </c>
       <c r="AA4" s="2">
         <v>1.013447048357992</v>
@@ -2753,43 +2901,117 @@
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.39727427344276117</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.38866585031048911</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.87657289057991716</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.38866585031048911</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.38866585031048922</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.38866585031048911</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.38866585031048922</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.38866585031048928</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.41856687983018104</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.38866585031048922</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.38866585031048922</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.38866585031048922</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.38866585031048922</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.38866585031048928</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.66148558656686351</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.75588131537363479</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.81715587270134249</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.38866585031048922</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.38866585031048928</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.38866585031048928</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.38866585031048922</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.38866585031048928</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.38866585031048917</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.38866585031048922</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2926,211 +3148,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.38470728793309444</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.41709844559585496</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.5480769230769231</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.28853046594982085</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.6625514403292182</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.29379562043795621</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.46065808297567956</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.43809523809523815</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.3096231203103943</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.71714922048997765</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.54855195911413968</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.9053254437869827</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.2014925373134329</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.56293706293706303</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1.4504504504504503</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1.1258741258741261</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1.2677165354330711</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.63218390804597702</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.30377358490566042</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.3123445277020536</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.2504525736249659</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>2.0794292237956342</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.30291627469426152</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.27427597955706984</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.1709090909090911</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.90960451977401147</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1.4703196347031966</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.73853211009174313</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.25677830940988838</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.70108475946637916</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.55805892547660318</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>3.1568627450980395</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.0181818181818181</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.38470728793309444</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.93375068456210675</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.41709844559585496</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.5480769230769231</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.28853046594982085</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.6625514403292182</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.29379562043795621</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.46065808297567956</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.43809523809523815</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3417048087732049</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.71714922048997765</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.54855195911413968</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.9053254437869827</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1.2014925373134329</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.56293706293706303</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.4504504504504503</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1.1258741258741261</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1.2677165354330711</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.64367816091954022</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.30377358490566042</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.3135576551385393</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1345388025047491</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.9414249479933376</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.30291627469426152</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.27427597955706984</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1.1709090909090911</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.90960451977401147</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1.4703196347031966</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.73853211009174313</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.25677830940988838</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70522840587521896</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.55805892547660318</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>3.1568627450980395</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>0.99758538785588513</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38470728793309444</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1211881583170216</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.41709844559585496</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.5480769230769231</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.28853046594982085</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.6625514403292182</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.29379562043795621</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.46065808297567956</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.43809523809523815</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.45004004157651</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.71714922048997765</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.54855195911413968</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1.9053254437869827</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.2014925373134329</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.56293706293706303</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.4504504504504503</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.1258741258741261</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.2677165354330711</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.58510638297872342</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.30377358490566042</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4953749148265836</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.2539587805511969</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.7612130943305424</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.30291627469426152</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.27427597955706984</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1.1709090909090911</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.90960451977401147</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1.4703196347031966</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.73853211009174313</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.25677830940988838</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.73886955904281759</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.55805892547660318</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>3.1568627450980395</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.92955844269030585</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.23863366269396624</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.8163081777399892</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.16752433936022254</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25961538461538464</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2104632707453658</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.21743839696723535</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.21394316163410304</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.5583982202447163</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.049270072992700732</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.077253218884120164</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.073469387755102047</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.12026726057906457</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.091993185689948895</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.31952662721893493</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.20149253731343283</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.28627291242362529</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.27528282482002059</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.18881118881118883</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.59524039065769596</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.23397030428124377</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.95993685355409963</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.19018753551809053</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.045996592844974447</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.25711083835850362</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.26757747417527489</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.57926534940443553</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.13775510204081631</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.12868589743589742</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.13124183006535944</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.56324156422042604</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.20168278287077737</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.52941176470588247</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.94875036944847868</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.62029930333804251</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.67983978792865285</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.40164220492575081</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.72943170854605033</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.32818341902508186</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.37207506371148352</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.64337186245586875</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.70653006590412215</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.50853449039227838</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.18979126431690863</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.16770186335403725</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.46953745101569799</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.7702128029134111</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.66934678865217168</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.69456282281207526</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.5301082428735151</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.62785512501779572</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.21958223772853569</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.2941690244038736</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.39397239602351353</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.16770186335403728</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.17424550087593565</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.51110948727316996</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.76680721801633767</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.36140051464732459</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.16770186335403731</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3304,211 +3896,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.18835616438356165</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.24336283185840707</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.25003904795088372</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.63953488372093026</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.031572904707233063</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.056124141390441827</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.02013177159590044</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.3096231203103943</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.030286343612334801</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.039034776437189493</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13988519345038045</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.32163742690058478</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.10826771653543307</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.27093596059113301</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.2920419356797344</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.2504525736249659</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2576598730325785</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.038327526132404179</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.2570093457943925</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.14536780268369179</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.1523545706371191</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.70108475946637916</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.30672974885037141</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.93375068456210675</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.19178082191780821</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="H3" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.65116279069767447</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.032146957520091848</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.11650485436893204</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.020497803806734993</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3.6284736669613578</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.030837004405286344</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="S3" s="2">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="V3" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="W3" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>46225608.013815917</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>6798284.2051502168</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>14066804.390893832</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.2196078431372549</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.044280442804428041</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.26168224299065418</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.14622697522369921</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.15512465373961218</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>120000000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>0.99758538785588513</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.27918781725888325</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1211881583170216</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.13715710723192021</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.24886877828054299</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.28142748958727759</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.26626492150616049</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.65476190476190477</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.032032615026208501</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.059053207760257201</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.019884309472161965</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.45004004157651</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.030386740331491711</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33006090211254202</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13487711930315757</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.33132530120481929</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10805500982318271</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4953749148265836</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.2539587805511969</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.3532640015509638</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.22267206477732793</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.038650737877723121</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.2570093457943925</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.14133778855361545</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.15193370165745856</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.27593476531424027</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.92955844269030585</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.24340770796022609</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.81704126098757446</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.16724738678859769</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.11627906977504732</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.20814479638009051</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.20382165608692715</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.54761904761904756</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.026790914385556204</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.048411497737256837</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.016630513376717282</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.02541436464088398</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.03335649757447285</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.24960998444943103</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.098019195436483714</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.28898254069750468</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.23529411768454442</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.093804963863071383</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.59795324019017215</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.51063829792440008</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.23232323232323235</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.95993685355409963</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.18979833928193338</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.033368091767406308</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.21495327102803738</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.24615384619250497</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.57965206469018049</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.10407239819004525</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.10884353743517364</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.1270718232044199</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.56715896305544156</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.19504266562333394</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.050342561926116039</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>111817007.82785644</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4266507973999367</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.68045031612518792</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.17028824836657216</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.1213722854242247</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.93728024042073621</v>
+      </c>
+      <c r="H6" s="2">
+        <v>86909060.540960565</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.80108193153018226</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.85157024793388414</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.7017640182757909</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.85157024793388447</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.9107226286187686</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2.5635984590417591</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>90750518.895808131</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1.5985187800297906</v>
+      </c>
+      <c r="S6" s="2">
+        <v>32.541058116652039</v>
+      </c>
+      <c r="T6" s="2">
+        <v>28235294.122145329</v>
+      </c>
+      <c r="U6" s="2">
+        <v>5.0641852177820805</v>
+      </c>
+      <c r="V6" s="2">
+        <v>71754388.822820663</v>
+      </c>
+      <c r="W6" s="2">
+        <v>61276595.750928007</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.85157024793388447</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>23925219.533484291</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>4161898.6123554069</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>8265130.4896726822</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.86786467072651319</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.9974123665079202</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>29538461.543100595</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>69558247.762821659</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.74069010199264362</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>13061224.492220836</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>9.7076815103576344</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>3.0726000989426465</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>6041107.431133925</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,211 +4644,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.51953187552051749</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.2801975951389042</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.24134939953274467</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.59012653083254385</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29224417575936301</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.66681971598933787</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.7084334965164234</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.27025248195381496</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.4371711503664988</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.68250796492578103</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.044091140988905771</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.32689317185806516</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.34196530395748215</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.33205324140210074</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.17575664427771948</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.95183863885839737</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.63218390804597702</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.79737077484763352</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.2920419356797344</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.2504525736249659</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2576598730325785</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1.0328989074221202</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.37468941317391596</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.2640824262809311</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.28350515463917525</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.84040705891854772</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>1.4878452648863525</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.13369437431341183</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.96149897759699454</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.72705390737223818</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.40898500021566225</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084359570966460476</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.0181818181818181</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.41493004697206931</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.93375068456210675</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.2094415312244218</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.19099405818600393</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.49973561729004817</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.29397143699709316</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.54925638572545299</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.91955275246536827</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.69609576241224302</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.2407475700254362</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.99133874790753573</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3417048087732049</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.67067013574529744</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.039744499645138397</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.32882522030064559</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.27699764139564176</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.32748538011695905</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.13475527476334009</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.95746432491767286</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.64367816091954022</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.69660282887352865</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.1964261568539489</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1345388025047491</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.1393145487342164</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.95229487724176998</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.36018128533222299</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1.1680033873135292</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.28865979381443296</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.84537414691273272</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1.4663873228969735</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.13448455297087902</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.90433846304949206</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70522840587521896</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.30854262469048466</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.08485816436557031</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.029336501731734</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.29727009511486746</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1211881583170216</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.19163763066202091</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.66127263304366668</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.95003764689868564</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.43779444847431054</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.2143772004830307</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.1036445664516197</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.1343896069227042</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.37622803525980414</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.0342728080591512</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.4746881911362346</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.81958330112340505</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.038220986796386379</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.36673863974951154</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.6194925434539742</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.34205484505879052</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.20253402786713276</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.93608312342569278</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.58510638297872342</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.1053616663934289</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4953749148265836</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.2539587805511969</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.3532640015509638</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.64811806816275275</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.23265719662100354</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1.3436728741715407</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.89694853891905868</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1.4533231274653053</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.12605774996819935</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.99820432755655353</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.76623830811750049</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.28615577017286553</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.086809787927475124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.9365998560353469</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.23350253807106597</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.81704126098757446</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.16027874564459929</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.13747494010072858</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.26883151450625498</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1965811965811966</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.25158408768042095</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.059432339444989671</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.47012814343509279</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.031966643502432245</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.11472994556256419</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.27710843373493976</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.22549019607843138</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.091654146923995525</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.58517787871754923</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.26619132501485443</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.95993685355409963</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.20094070016670634</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.041162002397585884</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.32854590434304565</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.23589743589743589</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.57479149791344109</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.22184111571094722</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.10430839002267574</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.16617917885386199</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.56324156422042604</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.18699186991869921</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.049465167016458311</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.92645013824199707</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.62734013072418282</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.68045031612518792</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.79013811685399105</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.16451921301866396</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.23962632487773641</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.45168013932067863</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.17064605269512356</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.86617902625156284</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.1407226135379159</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.95848865036664499</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.6330649702601473</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.56366931482124949</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.75391231669475911</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.65714196755816345</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.15001501536830092</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.79898419748835059</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.34696697653873548</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.628829280006862</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.21038482864421523</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.6192402801879483</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.69456282281207526</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.669418807029597</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.28584290204500151</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.17007078804144407</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.22592860275895302</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.64461748209535863</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.15044258471128319</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.83235570735863418</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.15658109867820216</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.71300737054388608</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.49297853093243066</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.57317871585469982</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4023,211 +5355,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.0615547574860689</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.0712895462335397</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.0849525443573234</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.62364125781629298</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29224417575936301</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.82584422225154563</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.1006277280611143</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.1217638661069855</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.82473998972264617</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.92571410424341893</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.32689317185806516</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.2849020574023979</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1.0413281707606175</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1.1210993082515606</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.95183863885839737</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.63218390804597702</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.1150147138581692</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.2920419356797344</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1.2504525736249659</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2576598730325785</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>2.1225760622335508</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1.2592335393743748</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1.2440225870022295</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.28350515463917525</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.84040705891854772</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>1.3436528778302816</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.13369437431341183</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1.1181739923329681</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1.0478785265633006</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084359570966460476</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.0181818181818181</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.2629799626402975</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.93375068456210675</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.1053509801662631</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.1623564351499147</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.73083566982389303</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.29397143699709316</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.93866804362207545</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.1045039637507257</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.1131062816907431</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.112247612415612</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.0048958085665738</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3417048087732049</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.83024664533097636</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.039744499645138397</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.32882522030064559</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1.3408240972075842</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.32748538011695905</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1.1740040105333784</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.95746432491767286</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.64367816091954022</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.2108162415322439</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.1964261568539489</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.1345388025047491</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.1393145487342164</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>2.1811861221027979</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1.2750631645367831</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1.2923093921216402</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.28865979381443296</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.84537414691273272</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1.3502425269759333</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.13448455297087902</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1.1495041466122284</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.70522840587521896</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.30854262469048466</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.08485816436557031</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>0.80483737929365284</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.133052190376675</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1211881583170216</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.19163763066202091</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.0337904775897557</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.66215729998963058</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.82902199760120054</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.86888332346816566</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.97383098058845174</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.1475956678975709</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.0802485468190328</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.0127183176121479</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.86816762916788015</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.85039663722833825</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.038220986796386379</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.49914644442244299</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.2901192022836121</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1.0575675985903867</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.0211961639482605</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.93608312342569278</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.58510638297872342</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.1316657668103018</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4953749148265836</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.2539587805511969</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.3532640015509638</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>2.1289585169979754</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1.2648821950931455</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1.1904707133550543</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.89694853891905868</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1.3153373186306183</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.12605774996819935</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>1.1477383988937195</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.73886955904281759</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1.105303071720301</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.08370908769121238</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.92955844269030585</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.23350253807106597</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.81704126098757446</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.16027874564459929</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.19702037617134463</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.36622539648380775</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1965811965811966</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.44971698632449003</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.10100611289564651</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.031966643502432245</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.21917346619660585</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.27710843373493976</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.22549019607843138</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.11033150177377612</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.58517787871754923</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.3892148833325304</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.95993685355409963</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.29214188652360207</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.056674601021532683</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.38786425992850287</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.23589743589743589</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.57479149791344109</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.25615199694115859</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.10430839002267574</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.22421676173071517</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.56324156422042604</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.18699186991869921</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.049465167016458311</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.1759636538195002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.24518604614266665</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.68045031612518792</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.86295564862016394</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.20417717854185863</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.64814501255707968</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.23852570625733888</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.58829035460284074</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.1341844588712024</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.88126654533322835</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.092709449642421018</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.99227573066514829</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.545444409231429</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.1837733056549085</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.03590833724611852</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.48282293502752738</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.17728007164994974</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.082403547056751333</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.11313991569180132</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.628829280006862</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.37348133275349449</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.6192402801879483</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.69456282281207526</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.669418807029597</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.14101200700934755</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.045369480784381536</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.33845371245592609</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.85157024793388425</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.64461748209535863</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.19569750987837164</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.83235570735863418</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0.20082895096721751</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.5375968540000674</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.049813330158879308</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.59441004722731505</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4364,211 +6066,581 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.4228824076437911</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.91622696707711138</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.93113562107604675</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.0433111001941284</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.92152854145078433</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.23931551353120623</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.41803393580958093</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.13826592554344236</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.3096231203103943</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.069426669464584437</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.14581690198127639</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.32689317185806516</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.13988519345038045</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.99290608874533959</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.10826771653543307</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.95183863885839737</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1.2978724406710065</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.343101799298124</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.2920419356797344</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1.2576598730325785</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1.7247601749307988</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.32972478491267249</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.2570093457943925</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.33766205035175423</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.84040705891854772</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.28101275154270461</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.33686239269869295</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>1.3493674860442906</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.084359570966460476</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.0181818181818181</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.4382049227588773</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.93375068456210675</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.95610591891983421</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13827160493827159</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.95270183838346079</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.96559188817033681</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.085426500308903</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.94347521997806061</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.25052879495210795</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.43573524890575327</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.14420530622523162</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3417048087732049</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.071814915102836191</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.1518288577512768</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.32882522030064559</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.14071196192831986</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1.0333849327766524</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.11023622047244094</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.95746432491767286</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1.2658719351480052</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.3069626894768849</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.1964261568539489</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.002154149413913</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1.1393145487342164</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1.8051511080813758</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.34534753445706357</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.26168224299065418</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.34281668952701194</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0.84537414691273272</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.28882071696163197</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.34806042281878474</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1.0229768901029921</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.86545711894021504</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1.4045924037219271</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.08485816436557031</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="B4" s="2">
+        <v>1.0221988581386308</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.418429313357745</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1211881583170216</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.93759227849786553</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.13715710723192021</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.0383688964646143</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.89667196830808638</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.1110150613525953</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.90583045645253113</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.23120021714868058</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.4398507353629712</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.14002348186793659</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.45004004157651</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.062473577640077424</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.14775983601094042</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33006090211254202</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.13487711930315757</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.98730683076601489</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.10805500982318271</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.93608312342569278</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1.1722438464716065</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.3729099417044164</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.4953749148265836</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.0284676086073323</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1.3532640015509638</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1.6750671313998173</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.34382702897959877</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.2570093457943925</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.33593045009354011</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.89694853891905868</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.27322226879108102</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.31762080858357661</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.99723756906077343</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>1.1304924565651422</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1.2138939961964073</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.08370908769121238</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.63676036063338104</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.81704126098757446</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.36338863175412139</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.11471321695760599</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.28360442787755569</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.31900976824363148</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.66037340046150617</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.13668901450335849</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.08857466216368548</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.033352758981664343</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.034728746318786974</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.052765472841210706</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.095833333333333326</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.44884825646197124</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.22549019607843138</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.093164449598850632</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.58646845334962139</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.83899615709063635</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.94817598098433253</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.2765376367228593</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.21672361974556381</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.27621145374449341</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0.57561666351601204</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.13000079733689479</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.13974547234459128</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.30703282754094841</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.049465167016458311</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="B6" s="2">
+        <v>0.99607019717853384</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.45375359960676098</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.68045031612518792</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.40444572689201841</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.85157024793388414</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.91749843589033886</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.32798960633878177</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.29872435193238756</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.74638750497530959</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.61891665782484939</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.20990140076828542</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.24842595519535932</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.70653006590412226</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.57501748173272371</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.37182611726158055</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.73016631101136631</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.71472271219824779</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.47315273185263362</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.85157024793388436</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.87787089962500431</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.63021612518026393</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.69807128028584653</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.70878123147866379</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.6192402801879483</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.97441488776778218</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.669418807029597</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.59243618877090454</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.84240124244729397</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.85858375505151641</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.83477996113581998</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0.64554288926469205</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.48902632338265195</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0.45460155118317536</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1.0258106211005074</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.765557623948944</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.26328379102006366</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0.59441004722731505</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
